--- a/output/piastow/2021/sheets/year_2021.xlsx
+++ b/output/piastow/2021/sheets/year_2021.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>42.06774193548387</v>
+        <v>45.29457071817085</v>
       </c>
       <c r="C2" t="n">
-        <v>36.97096774193548</v>
+        <v>40.12947610655205</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>44.14642857142858</v>
+        <v>44.42695686631354</v>
       </c>
       <c r="C3" t="n">
-        <v>32.80357142857143</v>
+        <v>38.47901082761781</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>44.96774193548387</v>
+        <v>45.17414308176085</v>
       </c>
       <c r="C4" t="n">
-        <v>34.02258064516128</v>
+        <v>38.05687972879421</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.17</v>
+        <v>44.68388113513343</v>
       </c>
       <c r="C5" t="n">
-        <v>16.79666666666666</v>
+        <v>39.81135811320988</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>46.7258064516129</v>
+        <v>47.32736408153119</v>
       </c>
       <c r="C6" t="n">
-        <v>35.41612903225807</v>
+        <v>41.41324204140365</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47.08333333333333</v>
+        <v>47.73394613085622</v>
       </c>
       <c r="C7" t="n">
-        <v>39.92666666666666</v>
+        <v>42.12330493877846</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>48.80322580645161</v>
+        <v>48.85212622942156</v>
       </c>
       <c r="C8" t="n">
-        <v>42.95483870967742</v>
+        <v>43.25716858072943</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>50.16129032258065</v>
+        <v>50.22483476349674</v>
       </c>
       <c r="C9" t="n">
-        <v>44.02580645161289</v>
+        <v>44.32907833648733</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>50.32666666666668</v>
+        <v>50.37713156135324</v>
       </c>
       <c r="C10" t="n">
-        <v>44.39</v>
+        <v>44.62251108252035</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>50.19354838709677</v>
+        <v>50.48436334173284</v>
       </c>
       <c r="C11" t="n">
-        <v>43.83225806451612</v>
+        <v>44.07791662376678</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>49.47666666666667</v>
+        <v>49.83508165304526</v>
       </c>
       <c r="C12" t="n">
-        <v>43.50333333333333</v>
+        <v>43.87497508901695</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>48.3258064516129</v>
+        <v>48.72900471560126</v>
       </c>
       <c r="C13" t="n">
-        <v>41.70322580645162</v>
+        <v>43.81490510861636</v>
       </c>
     </row>
   </sheetData>
